--- a/static/others/score_feedback.xlsx
+++ b/static/others/score_feedback.xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对关系影响程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二、非言语信息系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,6 +543,9 @@
   <si>
     <t>2/1/0/-1/-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机影响程度</t>
   </si>
 </sst>
 </file>
@@ -925,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,16 +941,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -965,19 +964,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,13 +986,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,13 +1002,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,13 +1034,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,13 +1050,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,13 +1082,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,13 +1098,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,13 +1114,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,31 +1130,31 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,13 +1164,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,13 +1212,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,13 +1228,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,13 +1276,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,13 +1292,13 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,13 +1308,13 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,13 +1328,13 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,13 +1344,13 @@
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,13 +1360,13 @@
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,13 +1376,13 @@
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,13 +1394,13 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,13 +1426,13 @@
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,31 +1442,31 @@
         <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,13 +1476,13 @@
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,13 +1492,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,65 +1508,65 @@
         <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,134 +1575,134 @@
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,262 +1711,262 @@
         <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,182 +1975,182 @@
         <v>24</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,182 +2159,182 @@
         <v>24</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,103 +2343,119 @@
         <v>24</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D90"/>
   <mergeCells count="27">
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
@@ -2452,22 +2467,6 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A71:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_feedback.xlsx
+++ b/static/others/score_feedback.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="3980" yWindow="3780" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="feedback" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="84">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -538,14 +538,240 @@
     </r>
   </si>
   <si>
-    <t>2/1/0/-1/-2</t>
-  </si>
-  <si>
-    <t>2/1/0/-1/-2</t>
+    <t>危机影响程度</t>
+  </si>
+  <si>
+    <r>
+      <t>明显提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显降低</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>明显提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显降低</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>危机影响程度</t>
+    <r>
+      <t>明显提高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微提高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显下降</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -922,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F1048532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -972,14 +1198,14 @@
       <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
@@ -988,14 +1214,14 @@
       <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
@@ -1004,14 +1230,14 @@
       <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
@@ -1020,14 +1246,14 @@
       <c r="D5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
@@ -1036,14 +1262,14 @@
       <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
@@ -1052,14 +1278,14 @@
       <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
@@ -1068,14 +1294,14 @@
       <c r="D8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
@@ -1084,14 +1310,14 @@
       <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
@@ -1100,14 +1326,14 @@
       <c r="D10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
@@ -1116,14 +1342,14 @@
       <c r="D11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
@@ -1132,14 +1358,14 @@
       <c r="D12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>76</v>
@@ -1150,14 +1376,14 @@
       <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
@@ -1166,14 +1392,14 @@
       <c r="D14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
@@ -1182,14 +1408,14 @@
       <c r="D15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
@@ -1198,14 +1424,14 @@
       <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
@@ -1214,14 +1440,14 @@
       <c r="D17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
@@ -1230,14 +1456,14 @@
       <c r="D18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
@@ -1246,14 +1472,14 @@
       <c r="D19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
@@ -1262,14 +1488,14 @@
       <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
@@ -1278,14 +1504,14 @@
       <c r="D21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
@@ -1294,14 +1520,14 @@
       <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
@@ -1310,14 +1536,14 @@
       <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1330,14 +1556,14 @@
       <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
@@ -1346,14 +1572,14 @@
       <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
@@ -1362,14 +1588,14 @@
       <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
@@ -1378,14 +1604,14 @@
       <c r="D27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>24</v>
@@ -1396,14 +1622,14 @@
       <c r="D28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
@@ -1412,14 +1638,14 @@
       <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
@@ -1428,14 +1654,14 @@
       <c r="D30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
@@ -1444,17 +1670,17 @@
       <c r="D31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1462,14 +1688,14 @@
       <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
@@ -1478,14 +1704,14 @@
       <c r="D33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
@@ -1494,14 +1720,14 @@
       <c r="D34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
@@ -1510,10 +1736,10 @@
       <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1530,10 +1756,10 @@
       <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1546,10 +1772,10 @@
       <c r="D37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1562,10 +1788,10 @@
       <c r="D38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1580,11 +1806,11 @@
       <c r="D39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,11 +1822,11 @@
       <c r="D40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,10 +1840,10 @@
       <c r="D41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1630,10 +1856,10 @@
       <c r="D42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="E42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1650,10 +1876,10 @@
       <c r="D43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1666,10 +1892,10 @@
       <c r="D44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="E44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1682,10 +1908,10 @@
       <c r="D45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1698,10 +1924,10 @@
       <c r="D46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="E46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1716,11 +1942,11 @@
       <c r="D47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,11 +1958,11 @@
       <c r="D48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E48" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,11 +1974,11 @@
       <c r="D49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>80</v>
+      <c r="E49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,11 +1990,11 @@
       <c r="D50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>80</v>
+      <c r="E50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,11 +2006,11 @@
       <c r="D51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>80</v>
+      <c r="E51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,11 +2022,11 @@
       <c r="D52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>80</v>
+      <c r="E52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,10 +2040,10 @@
       <c r="D53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1830,10 +2056,10 @@
       <c r="D54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1846,10 +2072,10 @@
       <c r="D55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="E55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1862,10 +2088,10 @@
       <c r="D56" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="5" t="s">
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1878,10 +2104,10 @@
       <c r="D57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="E57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1894,10 +2120,10 @@
       <c r="D58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="5" t="s">
+      <c r="E58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1914,10 +2140,10 @@
       <c r="D59" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1930,10 +2156,10 @@
       <c r="D60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="E60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1946,10 +2172,10 @@
       <c r="D61" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1962,10 +2188,10 @@
       <c r="D62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1980,11 +2206,11 @@
       <c r="D63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>80</v>
+      <c r="E63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,11 +2222,11 @@
       <c r="D64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>80</v>
+      <c r="E64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,11 +2238,11 @@
       <c r="D65" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>80</v>
+      <c r="E65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,11 +2254,11 @@
       <c r="D66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>80</v>
+      <c r="E66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,10 +2272,10 @@
       <c r="D67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" s="5" t="s">
+      <c r="E67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2062,10 +2288,10 @@
       <c r="D68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="E68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2078,10 +2304,10 @@
       <c r="D69" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="5" t="s">
+      <c r="E69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2094,10 +2320,10 @@
       <c r="D70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="E70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2114,10 +2340,10 @@
       <c r="D71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="E71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2130,10 +2356,10 @@
       <c r="D72" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="E72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2146,10 +2372,10 @@
       <c r="D73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="E73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2164,11 +2390,11 @@
       <c r="D74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>80</v>
+      <c r="E74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2180,11 +2406,11 @@
       <c r="D75" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>80</v>
+      <c r="E75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,11 +2422,11 @@
       <c r="D76" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>80</v>
+      <c r="E76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,10 +2440,10 @@
       <c r="D77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="5" t="s">
+      <c r="E77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2230,10 +2456,10 @@
       <c r="D78" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78" s="5" t="s">
+      <c r="E78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2246,10 +2472,10 @@
       <c r="D79" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="5" t="s">
+      <c r="E79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2266,10 +2492,10 @@
       <c r="D80" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="5" t="s">
+      <c r="E80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2282,10 +2508,10 @@
       <c r="D81" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="E81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2298,10 +2524,10 @@
       <c r="D82" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="5" t="s">
+      <c r="E82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2314,10 +2540,10 @@
       <c r="D83" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F83" s="5" t="s">
+      <c r="E83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2330,10 +2556,10 @@
       <c r="D84" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F84" s="5" t="s">
+      <c r="E84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2348,11 +2574,11 @@
       <c r="D85" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>80</v>
+      <c r="E85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2364,11 +2590,11 @@
       <c r="D86" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>80</v>
+      <c r="E86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,11 +2606,11 @@
       <c r="D87" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>80</v>
+      <c r="E87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,10 +2624,10 @@
       <c r="D88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F88" s="5" t="s">
+      <c r="E88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2414,10 +2640,10 @@
       <c r="D89" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="E89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2430,16 +2656,101 @@
       <c r="D90" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="E90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1048510" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1048510" s="1"/>
+    </row>
+    <row r="1048511" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E1048511" s="2"/>
+    </row>
+    <row r="1048512" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E1048512" s="2"/>
+    </row>
+    <row r="1048513" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E1048513" s="2"/>
+    </row>
+    <row r="1048514" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E1048514" s="2"/>
+    </row>
+    <row r="1048515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048515" s="5"/>
+    </row>
+    <row r="1048516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048516" s="5"/>
+    </row>
+    <row r="1048517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048517" s="5"/>
+    </row>
+    <row r="1048518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048518" s="5"/>
+    </row>
+    <row r="1048519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048519" s="5"/>
+    </row>
+    <row r="1048520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048520" s="5"/>
+    </row>
+    <row r="1048521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048521" s="5"/>
+    </row>
+    <row r="1048522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048522" s="5"/>
+    </row>
+    <row r="1048523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048523" s="5"/>
+    </row>
+    <row r="1048524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048524" s="5"/>
+    </row>
+    <row r="1048525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048525" s="5"/>
+    </row>
+    <row r="1048526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048526" s="5"/>
+    </row>
+    <row r="1048527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048527" s="5"/>
+    </row>
+    <row r="1048528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048528" s="5"/>
+    </row>
+    <row r="1048529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048529" s="5"/>
+    </row>
+    <row r="1048530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048530" s="5"/>
+    </row>
+    <row r="1048531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048531" s="5"/>
+    </row>
+    <row r="1048532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048532" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D90"/>
   <mergeCells count="27">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B88:B90"/>
@@ -2451,22 +2762,6 @@
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_feedback.xlsx
+++ b/static/others/score_feedback.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3780" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="feedback" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="92">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -772,6 +772,141 @@
       <t>明显下降</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定性分析</t>
+    <rPh sb="0" eb="1">
+      <t>ding'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触程度</t>
+    <rPh sb="0" eb="1">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相处模式</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作</t>
+    <rPh sb="0" eb="1">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞争</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明显接近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微接近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>略微疏远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显疏远</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -851,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,6 +1002,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1150,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,10 +1324,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1206,8 +1344,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1360,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1238,8 +1376,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1254,8 +1392,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1270,8 +1408,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1286,8 +1424,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1440,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1318,8 +1456,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1472,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1488,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1366,8 +1504,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1384,8 +1522,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1400,8 +1538,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1416,8 +1554,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1432,8 +1570,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1448,8 +1586,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1464,8 +1602,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1480,8 +1618,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1496,8 +1634,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1512,8 +1650,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1528,8 +1666,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1544,10 +1682,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1564,8 +1702,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1580,8 +1718,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1596,8 +1734,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1612,8 +1750,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1630,8 +1768,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
@@ -1646,8 +1784,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
@@ -1662,8 +1800,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1678,8 +1816,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1696,8 +1834,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1712,8 +1850,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1728,8 +1866,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1744,10 +1882,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1764,8 +1902,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
         <v>28</v>
       </c>
@@ -1780,8 +1918,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
         <v>29</v>
       </c>
@@ -1796,8 +1934,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1814,8 +1952,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="5" t="s">
         <v>31</v>
       </c>
@@ -1830,8 +1968,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1848,8 +1986,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="5" t="s">
         <v>31</v>
       </c>
@@ -1864,10 +2002,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1884,8 +2022,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
         <v>35</v>
       </c>
@@ -1900,8 +2038,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
         <v>36</v>
       </c>
@@ -1916,8 +2054,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
         <v>37</v>
       </c>
@@ -1932,8 +2070,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1950,8 +2088,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="5" t="s">
         <v>39</v>
       </c>
@@ -1966,8 +2104,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
@@ -1982,8 +2120,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
         <v>41</v>
       </c>
@@ -1998,8 +2136,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
         <v>42</v>
       </c>
@@ -2014,8 +2152,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
         <v>43</v>
       </c>
@@ -2030,8 +2168,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2048,8 +2186,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
         <v>39</v>
       </c>
@@ -2064,8 +2202,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
         <v>40</v>
       </c>
@@ -2080,8 +2218,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5" t="s">
         <v>41</v>
       </c>
@@ -2096,8 +2234,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +2250,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="5" t="s">
         <v>43</v>
       </c>
@@ -2128,10 +2266,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2148,8 +2286,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="5" t="s">
         <v>47</v>
       </c>
@@ -2164,8 +2302,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="5" t="s">
         <v>48</v>
       </c>
@@ -2180,8 +2318,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
@@ -2196,8 +2334,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2214,8 +2352,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="5" t="s">
         <v>51</v>
       </c>
@@ -2230,8 +2368,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
         <v>52</v>
       </c>
@@ -2246,8 +2384,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2262,8 +2400,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2280,8 +2418,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
         <v>51</v>
       </c>
@@ -2296,8 +2434,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
         <v>52</v>
       </c>
@@ -2312,8 +2450,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2328,10 +2466,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2348,8 +2486,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
         <v>56</v>
       </c>
@@ -2364,8 +2502,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
         <v>57</v>
       </c>
@@ -2380,8 +2518,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -2398,8 +2536,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="5" t="s">
         <v>59</v>
       </c>
@@ -2414,8 +2552,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="5" t="s">
         <v>60</v>
       </c>
@@ -2430,8 +2568,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2448,8 +2586,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="5" t="s">
         <v>59</v>
       </c>
@@ -2464,8 +2602,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="5" t="s">
         <v>60</v>
       </c>
@@ -2480,10 +2618,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -2500,8 +2638,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="5" t="s">
         <v>63</v>
       </c>
@@ -2516,8 +2654,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5" t="s">
         <v>64</v>
       </c>
@@ -2532,8 +2670,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
         <v>65</v>
       </c>
@@ -2548,8 +2686,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="5" t="s">
         <v>66</v>
       </c>
@@ -2564,8 +2702,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -2582,8 +2720,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="5" t="s">
         <v>68</v>
       </c>
@@ -2598,8 +2736,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="5" t="s">
         <v>69</v>
       </c>
@@ -2614,8 +2752,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -2632,8 +2770,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="5" t="s">
         <v>68</v>
       </c>
@@ -2648,8 +2786,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="5" t="s">
         <v>69</v>
       </c>
@@ -2663,6 +2801,76 @@
         <v>79</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="1048510" spans="5:5" ht="18" x14ac:dyDescent="0.2">
       <c r="E1048510" s="1"/>
     </row>
@@ -2734,7 +2942,25 @@
     </row>
   </sheetData>
   <autoFilter ref="D1:D90"/>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
@@ -2746,22 +2972,6 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A71:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_feedback.xlsx
+++ b/static/others/score_feedback.xlsx
@@ -384,160 +384,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>10/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>5/0/-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>5/-6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>5/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>2/0/-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>2/-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>-5</t>
-    </r>
-  </si>
-  <si>
     <t>危机影响程度</t>
   </si>
   <si>
@@ -907,6 +753,12 @@
       </rPr>
       <t>明显疏远</t>
     </r>
+  </si>
+  <si>
+    <t>6～10/1～5/0/-1～-5/-6～-10</t>
+  </si>
+  <si>
+    <t>3～5/1～2/0/-1～-2/-3～-5</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1151,7 @@
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -1340,7 +1192,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1356,7 +1208,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1372,7 +1224,7 @@
         <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1385,10 +1237,10 @@
         <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1404,7 +1256,7 @@
         <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1420,7 +1272,7 @@
         <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1436,7 +1288,7 @@
         <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1452,7 +1304,7 @@
         <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,7 +1320,7 @@
         <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,7 +1336,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1500,7 +1352,7 @@
         <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,7 +1370,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1534,7 +1386,7 @@
         <v>77</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1550,7 +1402,7 @@
         <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,7 +1418,7 @@
         <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1582,7 +1434,7 @@
         <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1598,7 +1450,7 @@
         <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1614,7 +1466,7 @@
         <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1630,7 +1482,7 @@
         <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1646,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1662,7 +1514,7 @@
         <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1678,7 +1530,7 @@
         <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1698,7 +1550,7 @@
         <v>77</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,7 +1566,7 @@
         <v>77</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,7 +1582,7 @@
         <v>77</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1746,7 +1598,7 @@
         <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,10 +1613,10 @@
         <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1777,10 +1629,10 @@
         <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1793,10 +1645,10 @@
         <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,16 +1661,16 @@
         <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1830,7 +1682,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1846,7 +1698,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1878,7 +1730,7 @@
         <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,7 +1766,7 @@
         <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,7 +1782,7 @@
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,10 +1797,10 @@
         <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,10 +1813,10 @@
         <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,7 +1834,7 @@
         <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,7 +1850,7 @@
         <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +1870,7 @@
         <v>77</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2034,7 +1886,7 @@
         <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +1902,7 @@
         <v>77</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,7 +1918,7 @@
         <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,10 +1933,10 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,10 +1949,10 @@
         <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,10 +1965,10 @@
         <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,10 +1981,10 @@
         <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,10 +1997,10 @@
         <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,10 +2013,10 @@
         <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,7 +2034,7 @@
         <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,7 +2050,7 @@
         <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,7 +2066,7 @@
         <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,7 +2082,7 @@
         <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,7 +2114,7 @@
         <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,7 +2134,7 @@
         <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,7 +2150,7 @@
         <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,7 +2166,7 @@
         <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2330,7 +2182,7 @@
         <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,10 +2197,10 @@
         <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,10 +2213,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,10 +2229,10 @@
         <v>74</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,10 +2245,10 @@
         <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,7 +2266,7 @@
         <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,7 +2282,7 @@
         <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,7 +2298,7 @@
         <v>77</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,7 +2314,7 @@
         <v>77</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,7 +2366,7 @@
         <v>77</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,10 +2381,10 @@
         <v>74</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,10 +2397,10 @@
         <v>74</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,10 +2413,10 @@
         <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,7 +2434,7 @@
         <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2598,7 +2450,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,7 +2466,7 @@
         <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2634,7 +2486,7 @@
         <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,7 +2502,7 @@
         <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,7 +2518,7 @@
         <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,7 +2534,7 @@
         <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2698,7 +2550,7 @@
         <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,10 +2565,10 @@
         <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,10 +2581,10 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,10 +2597,10 @@
         <v>74</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,7 +2618,7 @@
         <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,7 +2634,7 @@
         <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,36 +2650,36 @@
         <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>74</v>
@@ -2836,14 +2688,14 @@
         <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>74</v>
@@ -2852,14 +2704,14 @@
         <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>74</v>
@@ -2868,7 +2720,7 @@
         <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1048510" spans="5:5" ht="18" x14ac:dyDescent="0.2">
@@ -2943,24 +2795,6 @@
   </sheetData>
   <autoFilter ref="D1:D90"/>
   <mergeCells count="29">
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="B59:B62"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
@@ -2972,6 +2806,24 @@
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A80:A90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_feedback.xlsx
+++ b/static/others/score_feedback.xlsx
@@ -293,20 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定量分析（用户）</t>
-    <rPh sb="5" eb="6">
-      <t>yong'hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定量分析（对方）</t>
-    <rPh sb="5" eb="6">
-      <t>dui'fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>明显提高</t>
     </r>
@@ -759,6 +745,20 @@
   </si>
   <si>
     <t>3～5/1～2/0/-1～-2/-3～-5</t>
+  </si>
+  <si>
+    <t>定量分析（用户1）</t>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定量分析（用户2）</t>
+    <rPh sb="5" eb="6">
+      <t>yonmg'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1141,13 +1141,13 @@
   <dimension ref="A1:F1048532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="4" bestFit="1" customWidth="1"/>
@@ -1180,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1189,10 +1189,10 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,10 +1205,10 @@
         <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
         <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,10 +1269,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,10 +1285,10 @@
         <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1301,10 +1301,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,10 +1317,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1333,10 +1333,10 @@
         <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1349,16 +1349,16 @@
         <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -1367,10 +1367,10 @@
         <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,10 +1383,10 @@
         <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1399,10 +1399,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,10 +1415,10 @@
         <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
         <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1463,10 +1463,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,10 +1479,10 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,10 +1495,10 @@
         <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,10 +1511,10 @@
         <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,10 +1527,10 @@
         <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1547,10 +1547,10 @@
         <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1563,10 +1563,10 @@
         <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,10 +1579,10 @@
         <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1595,10 +1595,10 @@
         <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1613,10 +1613,10 @@
         <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
         <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1645,10 +1645,10 @@
         <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1661,16 +1661,16 @@
         <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1679,10 +1679,10 @@
         <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1695,10 +1695,10 @@
         <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1711,10 +1711,10 @@
         <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1727,10 +1727,10 @@
         <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,10 +1747,10 @@
         <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,10 +1763,10 @@
         <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +1779,10 @@
         <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,10 +1797,10 @@
         <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,10 +1831,10 @@
         <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,10 +1847,10 @@
         <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,10 +1867,10 @@
         <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,10 +1883,10 @@
         <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,10 +1899,10 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,10 +1933,10 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,10 +1949,10 @@
         <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,10 +1965,10 @@
         <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,10 +1981,10 @@
         <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
         <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,10 +2031,10 @@
         <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,10 +2047,10 @@
         <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,10 +2063,10 @@
         <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,10 +2079,10 @@
         <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,10 +2095,10 @@
         <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,10 +2111,10 @@
         <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,10 +2131,10 @@
         <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,10 +2147,10 @@
         <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,10 +2179,10 @@
         <v>73</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2197,10 +2197,10 @@
         <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,10 +2213,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2229,10 +2229,10 @@
         <v>74</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,10 +2245,10 @@
         <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,10 +2263,10 @@
         <v>73</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,10 +2279,10 @@
         <v>73</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,10 +2295,10 @@
         <v>73</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,10 +2311,10 @@
         <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,10 +2331,10 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,10 +2347,10 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,10 +2363,10 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,10 +2381,10 @@
         <v>74</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,10 +2397,10 @@
         <v>74</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,10 +2413,10 @@
         <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,10 +2431,10 @@
         <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,10 +2447,10 @@
         <v>73</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,10 +2463,10 @@
         <v>73</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2483,10 +2483,10 @@
         <v>73</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,10 +2499,10 @@
         <v>73</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,10 +2515,10 @@
         <v>73</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,10 +2547,10 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,10 +2565,10 @@
         <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,10 +2581,10 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,10 +2597,10 @@
         <v>74</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,10 +2615,10 @@
         <v>73</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,10 +2631,10 @@
         <v>73</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,80 +2647,80 @@
         <v>73</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1048510" spans="5:5" ht="18" x14ac:dyDescent="0.2">
@@ -2795,17 +2795,12 @@
   </sheetData>
   <autoFilter ref="D1:D90"/>
   <mergeCells count="29">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A80:A90"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="A71:A79"/>
     <mergeCell ref="B43:B46"/>
@@ -2818,12 +2813,17 @@
     <mergeCell ref="A59:A70"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/others/score_feedback.xlsx
+++ b/static/others/score_feedback.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="21860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="feedback" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feedback!$D$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">feedback!$E$1:$E$1048533</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="95">
   <si>
     <t>标签参数</t>
     <rPh sb="0" eb="1">
@@ -293,317 +293,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>明显提高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微提高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无影响</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微下降</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明显下降</t>
-    </r>
-  </si>
-  <si>
     <t>危机影响程度</t>
-  </si>
-  <si>
-    <r>
-      <t>明显提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无影响</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微降低</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明显降低</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>明显提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无影响</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微降低</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明显降低</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>明显提高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微提高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无影响</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微下降</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明显下降</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定性分析</t>
@@ -664,89 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>明显接近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微接近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无影响</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>略微疏远</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明显疏远</t>
-    </r>
-  </si>
-  <si>
-    <t>6～10/1～5/0/-1～-5/-6～-10</t>
-  </si>
-  <si>
-    <t>3～5/1～2/0/-1～-2/-3～-5</t>
-  </si>
-  <si>
     <t>定量分析（用户1）</t>
     <rPh sb="5" eb="6">
       <t>yong'hu</t>
@@ -759,13 +366,58 @@
       <t>yonmg'h</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感情阶段</t>
+    <rPh sb="0" eb="1">
+      <t>gan'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'daun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <rPh sb="0" eb="1">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显下降/略微下降/无影响/略微提高/明显提高</t>
+  </si>
+  <si>
+    <t>明显下降/略微下降/无影响/略微提高/明显提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显降低/略微降低/无影响/略微提升/明显提升</t>
+  </si>
+  <si>
+    <t>明显疏远/略微疏远/无影响/略微接近/明显接近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显著倒退/略微倒退/无影响/略微推进/显著推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明显降低/略微降低/无影响/略微提升/明显提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10～-6/-5～-1/0/1～5/6～10</t>
+  </si>
+  <si>
+    <t>-5～-3/-2～-1/0/1～2/3～5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,11 +441,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -811,7 +458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -834,19 +481,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +543,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1048532"/>
+  <dimension ref="A1:K1048533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,9 +846,11 @@
     <col min="2" max="2" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="4"/>
+    <col min="7" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="52.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -1180,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1189,10 +887,10 @@
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,10 +903,10 @@
         <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,10 +919,10 @@
         <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1237,10 +935,10 @@
         <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,10 +951,10 @@
         <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,10 +967,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1301,10 +999,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,10 +1015,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1333,10 +1031,10 @@
         <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1349,16 +1047,16 @@
         <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -1367,10 +1065,10 @@
         <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,10 +1081,10 @@
         <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1399,10 +1097,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,10 +1113,10 @@
         <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,10 +1129,10 @@
         <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,10 +1145,10 @@
         <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1463,10 +1161,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,10 +1177,10 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,10 +1193,10 @@
         <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,10 +1209,10 @@
         <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,10 +1225,10 @@
         <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1547,10 +1245,10 @@
         <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1563,10 +1261,10 @@
         <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,10 +1277,10 @@
         <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1595,10 +1293,10 @@
         <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1613,10 +1311,10 @@
         <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1629,10 +1327,10 @@
         <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1645,10 +1343,10 @@
         <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1661,16 +1359,16 @@
         <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1679,10 +1377,10 @@
         <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1695,10 +1393,10 @@
         <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1711,10 +1409,10 @@
         <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1727,10 +1425,10 @@
         <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,10 +1445,10 @@
         <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,10 +1461,10 @@
         <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +1477,10 @@
         <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,10 +1495,10 @@
         <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,10 +1511,10 @@
         <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,10 +1529,10 @@
         <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,10 +1545,10 @@
         <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,10 +1565,10 @@
         <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,10 +1581,10 @@
         <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,10 +1597,10 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,10 +1613,10 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,10 +1631,10 @@
         <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,10 +1647,10 @@
         <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,10 +1663,10 @@
         <v>74</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,10 +1679,10 @@
         <v>74</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,10 +1695,10 @@
         <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,10 +1711,10 @@
         <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,10 +1729,10 @@
         <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,10 +1745,10 @@
         <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,10 +1761,10 @@
         <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,10 +1777,10 @@
         <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,10 +1793,10 @@
         <v>73</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,10 +1809,10 @@
         <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,10 +1829,10 @@
         <v>73</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,10 +1845,10 @@
         <v>73</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,10 +1861,10 @@
         <v>73</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,10 +1877,10 @@
         <v>73</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2197,10 +1895,10 @@
         <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,13 +1911,13 @@
         <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
@@ -2229,13 +1927,13 @@
         <v>74</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
@@ -2245,13 +1943,13 @@
         <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
         <v>26</v>
@@ -2263,13 +1961,13 @@
         <v>73</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
@@ -2279,13 +1977,13 @@
         <v>73</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="5" t="s">
@@ -2295,13 +1993,13 @@
         <v>73</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="5" t="s">
@@ -2311,13 +2009,13 @@
         <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>54</v>
       </c>
@@ -2331,13 +2029,13 @@
         <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="5" t="s">
@@ -2347,13 +2045,13 @@
         <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="5" t="s">
@@ -2363,13 +2061,13 @@
         <v>73</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
         <v>24</v>
@@ -2381,13 +2079,13 @@
         <v>74</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="5" t="s">
@@ -2397,13 +2095,13 @@
         <v>74</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="5" t="s">
@@ -2413,13 +2111,14 @@
         <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
         <v>26</v>
@@ -2431,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="5" t="s">
@@ -2447,13 +2146,14 @@
         <v>73</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="5" t="s">
@@ -2463,13 +2163,13 @@
         <v>73</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>61</v>
       </c>
@@ -2483,13 +2183,13 @@
         <v>73</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="5" t="s">
@@ -2499,13 +2199,13 @@
         <v>73</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="5" t="s">
@@ -2515,13 +2215,13 @@
         <v>73</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
@@ -2531,13 +2231,13 @@
         <v>73</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="5" t="s">
@@ -2547,13 +2247,13 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
         <v>24</v>
@@ -2565,13 +2265,13 @@
         <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="5" t="s">
@@ -2581,13 +2281,13 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="5" t="s">
@@ -2597,15 +2297,15 @@
         <v>74</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -2615,15 +2315,15 @@
         <v>73</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="5" t="s">
         <v>68</v>
       </c>
@@ -2631,15 +2331,15 @@
         <v>73</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="5" t="s">
         <v>69</v>
       </c>
@@ -2647,87 +2347,104 @@
         <v>73</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="D93" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1048510" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1048510" s="1"/>
-    </row>
-    <row r="1048511" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E1048511" s="2"/>
+      <c r="D95" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="1048511" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1048511" s="1"/>
     </row>
     <row r="1048512" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E1048512" s="2"/>
@@ -2738,8 +2455,8 @@
     <row r="1048514" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E1048514" s="2"/>
     </row>
-    <row r="1048515" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048515" s="5"/>
+    <row r="1048515" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E1048515" s="2"/>
     </row>
     <row r="1048516" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048516" s="5"/>
@@ -2792,15 +2509,18 @@
     <row r="1048532" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048532" s="5"/>
     </row>
+    <row r="1048533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048533" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D90"/>
+  <autoFilter ref="E1:E1048533"/>
   <mergeCells count="29">
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B93:B95"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="A80:A90"/>
+    <mergeCell ref="A91:A95"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="A71:A79"/>
     <mergeCell ref="B43:B46"/>
